--- a/Docs/TestScenario_CashPayment_20220525.xlsx
+++ b/Docs/TestScenario_CashPayment_20220525.xlsx
@@ -2932,6 +2932,12 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2961,12 +2967,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3205,11 +3205,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="449634152"/>
-        <c:axId val="449633760"/>
+        <c:axId val="805475216"/>
+        <c:axId val="805479136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="449634152"/>
+        <c:axId val="805475216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3266,7 +3266,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449633760"/>
+        <c:crossAx val="805479136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3274,7 +3274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449633760"/>
+        <c:axId val="805479136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3317,7 +3317,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449634152"/>
+        <c:crossAx val="805475216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18160,8 +18160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47:E49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -18186,92 +18186,92 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="48"/>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="98" t="s">
         <v>369</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
     </row>
     <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="105" t="s">
         <v>405</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="107"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="50">
         <v>2</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="102" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="100"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="104"/>
     </row>
     <row r="5" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="50">
         <v>3</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="102" t="s">
         <v>348</v>
       </c>
-      <c r="D5" s="99"/>
-      <c r="E5" s="100"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="104"/>
     </row>
     <row r="6" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="50">
         <v>4</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="102" t="s">
         <v>406</v>
       </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="100"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="104"/>
     </row>
     <row r="7" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="50">
         <v>5</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="102" t="s">
         <v>350</v>
       </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="100"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104"/>
     </row>
     <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="50">
         <v>6</v>
       </c>
-      <c r="C8" s="98" t="s">
+      <c r="C8" s="102" t="s">
         <v>407</v>
       </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="100"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
     </row>
     <row r="9" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="50">
         <v>7</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="102" t="s">
         <v>370</v>
       </c>
-      <c r="D9" s="99"/>
-      <c r="E9" s="100"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="49"/>
     </row>
     <row r="10" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="50">
         <v>8</v>
       </c>
-      <c r="C10" s="98" t="s">
+      <c r="C10" s="102" t="s">
         <v>426</v>
       </c>
-      <c r="D10" s="99"/>
-      <c r="E10" s="100"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="104"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="51"/>
@@ -18281,11 +18281,11 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="48"/>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="100" t="s">
         <v>278</v>
       </c>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
       <c r="F12" s="53"/>
       <c r="G12" s="53"/>
       <c r="H12" s="54"/>
@@ -18324,10 +18324,10 @@
       <c r="C14" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="94" t="s">
         <v>265</v>
       </c>
-      <c r="E14" s="104" t="s">
+      <c r="E14" s="94" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="59"/>
@@ -18346,10 +18346,10 @@
       <c r="C15" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="D15" s="104" t="s">
+      <c r="D15" s="94" t="s">
         <v>265</v>
       </c>
-      <c r="E15" s="104" t="s">
+      <c r="E15" s="94" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="61" t="s">
@@ -18373,10 +18373,10 @@
       <c r="C16" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="D16" s="104" t="s">
+      <c r="D16" s="94" t="s">
         <v>265</v>
       </c>
-      <c r="E16" s="105" t="s">
+      <c r="E16" s="95" t="s">
         <v>378</v>
       </c>
       <c r="F16" s="64" t="s">
@@ -18397,10 +18397,10 @@
       <c r="C17" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="94" t="s">
         <v>265</v>
       </c>
-      <c r="E17" s="104" t="s">
+      <c r="E17" s="94" t="s">
         <v>266</v>
       </c>
       <c r="F17" s="61" t="s">
@@ -18421,10 +18421,10 @@
       <c r="C18" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="D18" s="104" t="s">
+      <c r="D18" s="94" t="s">
         <v>265</v>
       </c>
-      <c r="E18" s="104" t="s">
+      <c r="E18" s="94" t="s">
         <v>267</v>
       </c>
       <c r="F18" s="61" t="s">
@@ -18445,10 +18445,10 @@
       <c r="C19" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="D19" s="104" t="s">
+      <c r="D19" s="94" t="s">
         <v>265</v>
       </c>
-      <c r="E19" s="104" t="s">
+      <c r="E19" s="94" t="s">
         <v>277</v>
       </c>
       <c r="F19" s="59" t="s">
@@ -18469,10 +18469,10 @@
       <c r="C20" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="D20" s="104" t="s">
+      <c r="D20" s="94" t="s">
         <v>265</v>
       </c>
-      <c r="E20" s="104" t="s">
+      <c r="E20" s="94" t="s">
         <v>484</v>
       </c>
       <c r="F20" s="61" t="s">
@@ -18493,10 +18493,10 @@
       <c r="C21" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="D21" s="104" t="s">
+      <c r="D21" s="94" t="s">
         <v>265</v>
       </c>
-      <c r="E21" s="104" t="s">
+      <c r="E21" s="94" t="s">
         <v>483</v>
       </c>
       <c r="F21" s="61" t="s">
@@ -18630,10 +18630,10 @@
       <c r="C27" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="D27" s="104" t="s">
+      <c r="D27" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="E27" s="104" t="s">
+      <c r="E27" s="94" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="59" t="s">
@@ -18654,10 +18654,10 @@
       <c r="C28" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="D28" s="104" t="s">
+      <c r="D28" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="E28" s="104" t="s">
+      <c r="E28" s="94" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="61" t="s">
@@ -18678,10 +18678,10 @@
       <c r="C29" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="D29" s="104" t="s">
+      <c r="D29" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="E29" s="104" t="s">
+      <c r="E29" s="94" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="61" t="s">
@@ -18702,10 +18702,10 @@
       <c r="C30" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="D30" s="104" t="s">
+      <c r="D30" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="E30" s="104" t="s">
+      <c r="E30" s="94" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="59" t="s">
@@ -18726,10 +18726,10 @@
       <c r="C31" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="D31" s="104" t="s">
+      <c r="D31" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="E31" s="104" t="s">
+      <c r="E31" s="94" t="s">
         <v>255</v>
       </c>
       <c r="F31" s="61" t="s">
@@ -18750,10 +18750,10 @@
       <c r="C32" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="D32" s="104" t="s">
+      <c r="D32" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="E32" s="104" t="s">
+      <c r="E32" s="94" t="s">
         <v>456</v>
       </c>
       <c r="F32" s="73" t="s">
@@ -18772,10 +18772,10 @@
       <c r="C33" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="D33" s="104" t="s">
+      <c r="D33" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="E33" s="104" t="s">
+      <c r="E33" s="94" t="s">
         <v>458</v>
       </c>
       <c r="F33" s="73" t="s">
@@ -18794,10 +18794,10 @@
       <c r="C34" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="D34" s="104" t="s">
+      <c r="D34" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="E34" s="104" t="s">
+      <c r="E34" s="94" t="s">
         <v>459</v>
       </c>
       <c r="F34" s="73" t="s">
@@ -18816,10 +18816,10 @@
       <c r="C35" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="D35" s="104" t="s">
+      <c r="D35" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="E35" s="104" t="s">
+      <c r="E35" s="94" t="s">
         <v>463</v>
       </c>
       <c r="F35" s="73" t="s">
@@ -18838,10 +18838,10 @@
       <c r="C36" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="D36" s="104" t="s">
+      <c r="D36" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="E36" s="105" t="s">
+      <c r="E36" s="95" t="s">
         <v>256</v>
       </c>
       <c r="F36" s="74" t="s">
@@ -18886,10 +18886,10 @@
       <c r="C38" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="D38" s="104" t="s">
+      <c r="D38" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="E38" s="104" t="s">
+      <c r="E38" s="94" t="s">
         <v>279</v>
       </c>
       <c r="F38" s="82" t="s">
@@ -18908,10 +18908,10 @@
       <c r="C39" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="D39" s="106" t="s">
+      <c r="D39" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="E39" s="106" t="s">
+      <c r="E39" s="96" t="s">
         <v>452</v>
       </c>
       <c r="F39" s="61" t="s">
@@ -19008,10 +19008,10 @@
       <c r="C43" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="D43" s="104" t="s">
+      <c r="D43" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="E43" s="105" t="s">
+      <c r="E43" s="95" t="s">
         <v>17</v>
       </c>
       <c r="F43" s="61" t="s">
@@ -19035,10 +19035,10 @@
       <c r="C44" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="D44" s="106" t="s">
+      <c r="D44" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="E44" s="105" t="s">
+      <c r="E44" s="95" t="s">
         <v>408</v>
       </c>
       <c r="F44" s="61" t="s">
@@ -19062,10 +19062,10 @@
       <c r="C45" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="D45" s="106" t="s">
+      <c r="D45" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="E45" s="107" t="s">
+      <c r="E45" s="97" t="s">
         <v>409</v>
       </c>
       <c r="F45" s="61" t="s">
@@ -19293,16 +19293,16 @@
       <c r="I57" s="83"/>
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D58" s="97" t="s">
+      <c r="D58" s="101" t="s">
         <v>487</v>
       </c>
-      <c r="E58" s="97"/>
-      <c r="F58" s="97"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
     </row>
     <row r="59" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D59" s="97"/>
-      <c r="E59" s="97"/>
-      <c r="F59" s="97"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D60" s="87"/>
